--- a/biology/Origine et évolution du vivant/Anatomie_comparée/Anatomie_comparée.xlsx
+++ b/biology/Origine et évolution du vivant/Anatomie_comparée/Anatomie_comparée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anatomie_compar%C3%A9e</t>
+          <t>Anatomie_comparée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anatomie comparée est une branche de l'anatomie. Elle a été fondée par Edward Tyson (1650 ou 1651-1708) mais a été rendue populaire par le célèbre anatomiste Georges Cuvier (1769-1832). Elle a pour  objectif de comparer l'anatomie de différentes espèces (animales, végétales, fongiques…) pour en déterminer la phylogénie et les processus adaptatifs de chacune d'entre elles à leur environnement.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anatomie_compar%C3%A9e</t>
+          <t>Anatomie_comparée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anatomie comparée est une source importante de données servant principalement à l'étude de l'évolution du vivant. L'étude comparée de différentes espèces vivant dans des écosystèmes proches ou au contraire différents, permet aussi de mieux comprendre l'aspect morpho-fonctionnel et adaptatif de certaines caractéristiques anatomiques.
 En anatomie comparée, il s'agit d'opposer non pas seulement l'apparence mais aussi la structure des organes (ex. : histologie comparée) afin de distinguer les cas d'homologie des cas d'analogie évolutive.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anatomie_compar%C3%A9e</t>
+          <t>Anatomie_comparée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les ambivalences entre Anatomie humaine et Anatomie comparée
-L'anatomie humaine, bien plus populaire, fut la première à être codifiée par Sylvius et Riolan (XVe siècle). Puis au XIXe siècle, avec l'accroissement des échanges scientifiques internationaux il fut nécessaire de créer une nomenclature rationnelle et unique, basée sur des termes latins (de même que pour la nomenclature binominale des espèces), c'est ce que l'on appelle les Nomina Anatomica (N.A.).
+          <t>Les ambivalences entre Anatomie humaine et Anatomie comparée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anatomie humaine, bien plus populaire, fut la première à être codifiée par Sylvius et Riolan (XVe siècle). Puis au XIXe siècle, avec l'accroissement des échanges scientifiques internationaux il fut nécessaire de créer une nomenclature rationnelle et unique, basée sur des termes latins (de même que pour la nomenclature binominale des espèces), c'est ce que l'on appelle les Nomina Anatomica (N.A.).
 Ce n'est qu'en 1955, lors du IVe congrès fédératif d'anatomie à Paris, que fut adoptée une nomenclature unique, officielle et internationale.
 Cependant cette nouvelle nomenclature internationale ne fut établie que pour l'anatomie humaine, ainsi les zoologistes, vétérinaires, et embryologistes n'ont pu en faire grand usage car il existe chez les animaux de nombreux éléments anatomiques (ex. : le baculum) ou organes (ex. : le gésier) qui n'existent pas chez l'homme. Une transposition de l'anatomie humaine à l'anatomie animale provoquerait donc de grandes confusions en anatomie comparée.
 Enfin c'est en 1967, lors du congrès fédératif des anatomistes à Paris que fut adoptée une nomenclature plus complète et plus générale valable pour à peu près tous les mammifères, ce sont les Nomina Anatomica Veterinaria (N.A.V.). 
@@ -569,8 +588,43 @@
 superficiel / profond
 externe / interne
 exemple d'ambiguïté anatomique : voir muscle anconé
-Ostéologie comparée
-C'est certainement la branche de l'anatomie comparée la plus étudiée par les scientifiques (anatomistes, paléontologues, systématiciens). Elle est fondamentale car les os présents chez les fossiles et les espèces actuelles permettent de mettre en évidence des événements majeurs de l'évolution des vertébrés, par exemple :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anatomie_comparée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomie_compar%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie comparée des vertébrés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ostéologie comparée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est certainement la branche de l'anatomie comparée la plus étudiée par les scientifiques (anatomistes, paléontologues, systématiciens). Elle est fondamentale car les os présents chez les fossiles et les espèces actuelles permettent de mettre en évidence des événements majeurs de l'évolution des vertébrés, par exemple :
 l'apparition du membre chiridien à partir des nageoires monobasales dichotomiques des Ostéolépiformes (fossiles) ;
 l'apparition des os aviens depuis les dinosaures théropodes : soudure progressive des clavicules, migration du pubis postérieurement, réduction de la queue et formation d'un pygostyle ;
 l'apparition du palais osseux ;
@@ -589,8 +643,43 @@
 Elle permet d'expliquer les diverses formes d'adaptation des Vertébrés à leur environnement (ex. : le squelette appendiculaire des taupes est transformé en palette fouisseuse et associé à des os sésamoides comme l'os falciforme) et de mettre en évidence des convergences adaptatives entre espèces phylogénétiquement éloignées (ex. : les nageoires pectorales de la perche et du dauphin).
 Remarque : les dents sont constituées d'une matière osseuse qu'est l'ivoire (ou dentine), elles sont pour de nombreux mammifères fossiles les seuls traces de leur existence. Elles permettent donc par une étude anatomique (couronne, racine, cuspides, émail...), comparée aux espèces actuelles, de mettre en évidence l'apparition et l'adaptation de la denture des vertébrés (dent haplodonte, pleurodonte, acrodonte ; plexodonte, triconodonte, trituberculaire, quadrituberculaires...). (voir article : Histoire évolutive des dents).
 La denture des mammifères et plus précisément les molaires, est extrêmement complexe et fait l'objet d'une typologie très particulière.
-Myologie comparée
-La myologie comparée analyse la structure, la fonction, la position et l'évolution des différents muscles présents chez les vertébrés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anatomie_comparée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomie_compar%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie comparée des vertébrés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Myologie comparée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La myologie comparée analyse la structure, la fonction, la position et l'évolution des différents muscles présents chez les vertébrés.
 Les études sont fondées essentiellement sur les muscles striés squelettiques. Ainsi la myologie comparée devient indissociable de l'ostéologie, on parle d'ailleurs de système ostéomusculaire.
 L'étude du système musculaire est plus complexe que celle du système osseux. En effet, les muscles sont plus nombreux (ex. : chez l'Homme 368 à 550 muscles selon les auteurs contre 206 os) et ils ont une typologie très complexe selon :
 leur forme :
@@ -622,71 +711,143 @@
 L'étude du système musculaire s'inscrit principalement dans une optique adaptative et biomécanique.
 ex. : les muscles pectoraux des oiseaux sont extrêmement développés comparés à ceux des humains, car chez ces premiers ils interviennent dans le battement de l'aile. En effet, le travail physique, fourni par un oiseau au décollage, est très important.
 Remarque : les muscles pectoraux de l'oiseau sont impliqués dans l'abaissement des ailes et fonctionnent de manière antagonistes avec les muscles supracoracoïdiens. Chez l'Homme les muscles pectoraux permettent une importante mobilité du bras et de la scapula (voir article grand pectoral et petit pectoral)
-Angiologie comparée
-Les arcs aortiques sont des vaisseaux reliant le sac aortique aux aortes dorsales paires.
-Splanchnologie comparée
-Neurologie comparée
-Embryologie comparée
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anatomie_compar%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anatomie_comparée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anatomie_compar%C3%A9e</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie comparée des vertébrés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Angiologie comparée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arcs aortiques sont des vaisseaux reliant le sac aortique aux aortes dorsales paires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anatomie_comparée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomie_compar%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anatomie comparée des vertébrés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Embryologie comparée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anatomie_comparée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomie_compar%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Anatomie comparée des invertébrés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anatomie comparée des Arthropodes
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anatomie_compar%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anatomie comparée des Arthropodes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anatomie_comparée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Origine et évolution du vivant/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anatomie_compar%C3%A9e</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Grands anatomistes spécialistes de l'anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Claude Perrault (1613-1688)
 Joseph-Guichard Duverney (1648-1730)
